--- a/biology/Médecine/Archives_de_médecine_navale/Archives_de_médecine_navale.xlsx
+++ b/biology/Médecine/Archives_de_médecine_navale/Archives_de_médecine_navale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Archives_de_m%C3%A9decine_navale</t>
+          <t>Archives_de_médecine_navale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Archives de médecine navale est le nom d'un périodique francophone qui publie de 1864 à 1889 des articles sur des travaux de médecins ou pharmaciens en service dans la marine ou dans les colonies. On y trouve des travaux divers ayant principalement pour sujet les pathologies exotiques. Son développement coïncide avec l'expansion coloniale française à la fin du XIXe siècle. Ce périodique possède 136 volumes publiés de 1864 à 1945[1] et édités aux éditions Octave Doin, à Paris.
+Archives de médecine navale est le nom d'un périodique francophone qui publie de 1864 à 1889 des articles sur des travaux de médecins ou pharmaciens en service dans la marine ou dans les colonies. On y trouve des travaux divers ayant principalement pour sujet les pathologies exotiques. Son développement coïncide avec l'expansion coloniale française à la fin du XIXe siècle. Ce périodique possède 136 volumes publiés de 1864 à 1945 et édités aux éditions Octave Doin, à Paris.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Archives_de_m%C3%A9decine_navale</t>
+          <t>Archives_de_médecine_navale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Changements d’appellations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archives de médecine navale changent plusieurs fois de nom.
 Après la création du Corps de santé des colonies et des pays de protectorat,de 1890 à 1896, elles sont appelées les Archives de médecine navale et coloniale. 
 Elles sont ensuite appelées Archives de médecine et de pharmacie navales de 1910 à 1945. 
-Elles sont à l'origine de la Revue de médecine tropicale[2].
+Elles sont à l'origine de la Revue de médecine tropicale.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Archives_de_m%C3%A9decine_navale</t>
+          <t>Archives_de_médecine_navale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Archives numérisées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les numéros des Archives de médecine navale ont été numérisés par la Bibliothèque interuniversitaire de Paris et sont aujourd'hui consultables sur leur site[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les numéros des Archives de médecine navale ont été numérisés par la Bibliothèque interuniversitaire de Paris et sont aujourd'hui consultables sur leur site.
 </t>
         </is>
       </c>
